--- a/app/utils/excel-parser-scripts/auction-daily-sample.xlsx
+++ b/app/utils/excel-parser-scripts/auction-daily-sample.xlsx
@@ -74,7 +74,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
-            <text:p>Capacity HU&gt;RS </text:p>
+            <text:p>capacityHURS </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
             <text:p>Price HU&gt;RS </text:p>
@@ -721,11 +721,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2019-07-09T21:38:56.991782972</meta:creation-date>
-    <dc:date>2019-07-09T21:40:52.796347863</dc:date>
-    <meta:editing-duration>PT1M56S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
+    <dc:date>2019-07-18T22:54:59.074049289</dc:date>
+    <meta:editing-duration>PT2M6S</meta:editing-duration>
+    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="150" meta:object-count="0"/>
-    <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
   </office:meta>
 </office:document-meta>
 </file>
@@ -743,8 +743,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">53</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -788,13 +788,14 @@
       </config:config-item-map-indexed>
     </config:config-item-set>
     <config:config-item-set config:name="ooo:configuration-settings">
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
       <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">ngH+/0hQX0xhc2VySmV0X000MDJkbl8zMjIyMTRfAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9NNDAyZG5fMzIyMjE0XwAWAAMAvwAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfTTQwMmRuXzMyMjIxNF8Kb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhClBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">HP_LaserJet_M402dn_322214_</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
@@ -857,25 +858,12 @@
     <number:number-style style:name="N124">
       <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
-    <number:currency-style style:name="N10121P0" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10122P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10121" number:language="en" number:country="US">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10122P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
     <number:currency-style style:name="N10122" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
@@ -884,73 +872,72 @@
     </number:currency-style>
     <number:currency-style style:name="N10123P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10123" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10123P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10125P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10123" number:language="en" number:country="US">
+    <number:currency-style style:name="N10125" number:language="en" number:country="US">
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10123P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10124P0" style:volatile="true" number:language="en" number:country="US">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10125P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10126P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10124" number:language="en" number:country="US">
+    <number:currency-style style:name="N10126" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10124P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N10125" number:language="en" number:country="US">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10126P0"/>
+    </number:currency-style>
+    <number:date-style style:name="N10127" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N10126" number:language="en" number:country="US">
+    <number:date-style style:name="N10128" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N10127" number:language="en" number:country="US">
+    <number:date-style style:name="N10129" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N10128" number:language="en" number:country="US">
+    <number:date-style style:name="N10130" number:language="en" number:country="US">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N10129" number:language="en" number:country="US">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N10130" number:language="en" number:country="US">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
     <number:time-style style:name="N10131" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
     <number:time-style style:name="N10132" number:language="en" number:country="US">
       <number:hours/>
@@ -958,8 +945,22 @@
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N10133" number:language="en" number:country="US">
+    <number:time-style style:name="N10133" number:language="en" number:country="US">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N10134" number:language="en" number:country="US">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:date-style style:name="N10135" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
@@ -970,135 +971,135 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N10134P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10137P0" style:volatile="true" number:language="en" number:country="US">
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10134" number:language="en" number:country="US">
+    <number:number-style style:name="N10137" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10134P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10137P0"/>
     </number:number-style>
-    <number:number-style style:name="N10135P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10139P0" style:volatile="true" number:language="en" number:country="US">
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10135" number:language="en" number:country="US">
+    <number:number-style style:name="N10139" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10135P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10139P0"/>
     </number:number-style>
-    <number:number-style style:name="N10136P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P0" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10136P1" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P1" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N10136P2" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P2" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N10136" number:language="en" number:country="US">
+    <number:text-style style:name="N10143" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10143P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10143P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10143P2"/>
     </number:text-style>
-    <number:currency-style style:name="N10137P0" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10147P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10137P1" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10147P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10137P2" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10147P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:currency-style>
-    <number:text-style style:name="N10137" number:language="en" number:country="US">
+    <number:text-style style:name="N10147" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10137P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10147P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10147P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10147P2"/>
     </number:text-style>
-    <number:number-style style:name="N10138P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P0" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10138P1" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P1" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N10138P2" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P2" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N10138" number:language="en" number:country="US">
+    <number:text-style style:name="N10151" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10138P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10151P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10151P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10151P2"/>
     </number:text-style>
-    <number:currency-style style:name="N10139P0" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10155P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10139P1" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10155P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10139P2" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10155P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:text-style style:name="N10139" number:language="en" number:country="US">
+    <number:text-style style:name="N10155" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10139P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10139P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10139P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10155P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10155P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10155P2"/>
     </number:text-style>
     <number:date-style style:name="N20107" number:language="hu" number:country="HU">
       <number:day number:style="long"/>
@@ -1218,9 +1219,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2019-07-09">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2019-07-18">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="22:54:48.394190881">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
